--- a/Bachelor/Bachelor/Daten/test.xlsx
+++ b/Bachelor/Bachelor/Daten/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/745d74a4dee6b669/Desktop/Bachelor-main/Bachelor/Bachelor/Daten/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AG Hufert\OneDrive\Desktop\Bachelor-main\Bachelor\Bachelor\Daten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="168" documentId="11_AD4DB114E441178AC67DF4CDC614EB9E693EDF1D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E9C20FC-1976-4BDC-89CA-E1A744C4440E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0ACDDB8-C36F-4151-BAA2-DEB8FEEDEEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -44,13 +44,13 @@
     <t>weight</t>
   </si>
   <si>
-    <t>referenz</t>
+    <t>oM</t>
   </si>
   <si>
-    <t>1,5x rev</t>
+    <t>3M</t>
   </si>
   <si>
-    <t>2x rev</t>
+    <t>4M</t>
   </si>
 </sst>
 </file>
@@ -58,9 +58,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,16 +68,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -85,13 +97,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFD6DADC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFD6DADC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -107,10 +133,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -378,16 +400,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" zoomScale="97" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -395,175 +417,176 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>3.4769909999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="1">
+        <v>11.436735000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>3.4658289999999998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
+        <v>5.9539460000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>3.3682400000000001</v>
-      </c>
-      <c r="D4">
+      <c r="B4" s="1">
+        <v>6.0998210000000004</v>
+      </c>
+      <c r="D4" s="1">
         <f>AVERAGE(B2:B7)</f>
-        <v>3.3937615000000001</v>
+        <v>6.9064013333333323</v>
       </c>
       <c r="E4">
         <f>_xlfn.STDEV.S(B2:B7)</f>
-        <v>6.9168837711067466E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2.225359066761023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>3.292761</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>5.744059</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
-      <c r="B6">
-        <v>3.3957190000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
+        <v>5.971463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7">
-        <v>3.363029</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
+        <v>6.2323839999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-      <c r="B8">
-        <v>3.4301370000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <v>5.1373369999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B9">
-        <v>3.4675120000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <v>4.910774</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B10">
-        <v>3.4209710000000002</v>
-      </c>
-      <c r="D10">
-        <f>AVERAGE(B8:B13)</f>
-        <v>3.4254484999999999</v>
-      </c>
-      <c r="E10">
-        <f>_xlfn.STDEV.S(B8:B13)</f>
-        <v>7.0462299459356226E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>5.3207899999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="B11">
-        <v>3.2895720000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>5.3585219999999998</v>
+      </c>
+      <c r="D11" s="1">
+        <f>AVERAGE(B8:B13)</f>
+        <v>5.163876666666666</v>
+      </c>
+      <c r="E11">
+        <f>_xlfn.STDEV.S(B8:B13)</f>
+        <v>0.20026568661222674</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>3</v>
       </c>
-      <c r="B12">
-        <v>3.4630239999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>4.93994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>3</v>
       </c>
-      <c r="B13">
-        <v>3.4814750000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <v>5.3158969999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="1">
-        <v>3.2756949999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12.587875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
-      <c r="B15">
-        <v>3.7159599999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <v>3.6473080000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
-      <c r="B16">
-        <v>3.406317</v>
-      </c>
-      <c r="D16">
+      <c r="B16" s="1">
+        <v>4.7214159999999996</v>
+      </c>
+      <c r="D16" s="1">
         <f>AVERAGE(B14:B19)</f>
-        <v>3.4455373333333337</v>
+        <v>6.1103108333333331</v>
       </c>
       <c r="E16">
         <f>_xlfn.STDEV.S(B14:B19)</f>
-        <v>0.16823765045038724</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3.2347274325484321</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
-      <c r="B17">
-        <v>3.3684080000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <v>5.3609140000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
-      <c r="B18">
-        <v>3.3270629999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <v>5.0285289999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>4</v>
       </c>
-      <c r="B19">
-        <v>3.5797810000000001</v>
+      <c r="B19" s="2">
+        <v>5.315823</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>